--- a/output/fit_clients/fit_round_418.xlsx
+++ b/output/fit_clients/fit_round_418.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1952807851.032264</v>
+        <v>1821846667.582281</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0751746597616197</v>
+        <v>0.1136002010792882</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04404094573942299</v>
+        <v>0.04528818746650131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>976403914.8302481</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1820400993.909815</v>
+        <v>1950190497.051553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1210596780296922</v>
+        <v>0.1741383956940665</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03624589723570511</v>
+        <v>0.03153572033325801</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>910200509.2136632</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4584409108.740844</v>
+        <v>4626697470.05918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.125936693937446</v>
+        <v>0.1175515647171227</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0336294795485368</v>
+        <v>0.03352057805323606</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>151</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2292204609.958256</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3581603987.529373</v>
+        <v>3120703061.776661</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1050979082980349</v>
+        <v>0.07754491583366391</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04381499803941281</v>
+        <v>0.04666982960171802</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>155</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1790802025.176678</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1787720301.539682</v>
+        <v>2333696371.876208</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09825041217096191</v>
+        <v>0.1270990426611993</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0462331689186266</v>
+        <v>0.03736600201190522</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>78</v>
-      </c>
-      <c r="J6" t="n">
-        <v>893860203.3511621</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2401772385.212984</v>
+        <v>2044288362.892535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07548289952984052</v>
+        <v>0.09557582536819545</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04727773483204101</v>
+        <v>0.03172318300283423</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>131</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1200886215.087086</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2849924805.413415</v>
+        <v>2481942265.751062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.173585056507931</v>
+        <v>0.2030276150202516</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0294808013165933</v>
+        <v>0.0265366719963682</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>133</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1424962444.893747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1672703560.545246</v>
+        <v>2234881519.740186</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1794942010990665</v>
+        <v>0.171440729309057</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02534530203463873</v>
+        <v>0.0248537220912134</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>836351852.3089761</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5596951747.089891</v>
+        <v>5848751255.738053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1605616279306555</v>
+        <v>0.1721730916574285</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04272309538904508</v>
+        <v>0.03443100866419958</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>176</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2798476019.1279</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3343082324.617073</v>
+        <v>2943567688.496065</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1875698148116443</v>
+        <v>0.1481000651708871</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04304779256838143</v>
+        <v>0.04041302533370768</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>172</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1671541129.195452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3163800921.826839</v>
+        <v>2635347669.797791</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1331257860412091</v>
+        <v>0.172599467598976</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05038071304174292</v>
+        <v>0.04457903639374394</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>142</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1581900493.928243</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4645382509.609528</v>
+        <v>3309183141.453534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09399885473017103</v>
+        <v>0.06387357712322725</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02549389122697003</v>
+        <v>0.02514549401448384</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>141</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2322691276.970362</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3594928498.937203</v>
+        <v>3276860515.823192</v>
       </c>
       <c r="F14" t="n">
-        <v>0.133203706794301</v>
+        <v>0.1757243621586512</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03910920797948087</v>
+        <v>0.03207331679293551</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>136</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1797464240.842606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1371844158.223168</v>
+        <v>1130620281.513548</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1063899574973789</v>
+        <v>0.06589203214339182</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03471384097090961</v>
+        <v>0.03159670962437441</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>685922135.5679722</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2221202025.858566</v>
+        <v>2660438299.124872</v>
       </c>
       <c r="F16" t="n">
-        <v>0.082495289364918</v>
+        <v>0.07340416204541897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03183335909019064</v>
+        <v>0.03855235838689873</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>85</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1110601068.666961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4371241928.184464</v>
+        <v>3999629840.8825</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1498175184171927</v>
+        <v>0.1138128666211201</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03825594281964825</v>
+        <v>0.05279258113279794</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>122</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2185620980.37762</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2882985723.92515</v>
+        <v>2726513569.36068</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1354670199384428</v>
+        <v>0.1773631786654446</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03319435661704356</v>
+        <v>0.02503042321871319</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>137</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1441492900.767215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1300718160.364138</v>
+        <v>1209799939.918308</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1697584726260531</v>
+        <v>0.1423903076746729</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02443441295269521</v>
+        <v>0.02284863274182588</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>650359182.6683371</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2090848503.592479</v>
+        <v>1935895023.024827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1356649568737302</v>
+        <v>0.1353982097866159</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03129071934490128</v>
+        <v>0.02078485652166926</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>57</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1045424268.492965</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1732118683.462711</v>
+        <v>2633537483.636658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09049665895975838</v>
+        <v>0.07716855865859218</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03052971026139179</v>
+        <v>0.04042188423326101</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>33</v>
-      </c>
-      <c r="J21" t="n">
-        <v>866059403.2996657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3401277142.039784</v>
+        <v>3127299954.947779</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09727013877205795</v>
+        <v>0.1277443160330928</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04828012734212574</v>
+        <v>0.04367179061991044</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>118</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1700638608.539657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1456209362.953794</v>
+        <v>1442898864.388615</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1495139578263235</v>
+        <v>0.1543683155202052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03529315801229834</v>
+        <v>0.05038943958032215</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>728104674.8072091</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3141760651.133588</v>
+        <v>3864131388.120437</v>
       </c>
       <c r="F24" t="n">
-        <v>0.096636581820522</v>
+        <v>0.1451811410541913</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02751686848081365</v>
+        <v>0.0238492961648967</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>122</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1570880351.285299</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1294736392.912056</v>
+        <v>1375541209.126156</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1231309589094272</v>
+        <v>0.09817245521103332</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02038712192878521</v>
+        <v>0.02225612059828396</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>647368192.6410745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1155319583.420939</v>
+        <v>1162320126.787745</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0837588827137099</v>
+        <v>0.1182152406642074</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02423414582738912</v>
+        <v>0.03671831731128255</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>577659801.809351</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4113270080.388753</v>
+        <v>4036426741.948452</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1268030272002357</v>
+        <v>0.130420225614898</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02571167841195797</v>
+        <v>0.02170285274889276</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2056635044.760311</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3140852678.603323</v>
+        <v>2622660716.420536</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1326291261504925</v>
+        <v>0.1326795866629377</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03486283227941844</v>
+        <v>0.04381532211849624</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>135</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1570426362.752658</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3853216940.219894</v>
+        <v>3601631073.068886</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09540123511796603</v>
+        <v>0.1376224103323654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0355469960537932</v>
+        <v>0.03902224570131712</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>184</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1926608497.193237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2250498776.011663</v>
+        <v>2180807632.266063</v>
       </c>
       <c r="F30" t="n">
-        <v>0.112317304403103</v>
+        <v>0.1064496302763471</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02552303738197656</v>
+        <v>0.03832647349426536</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1125249454.011607</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1416412887.776428</v>
+        <v>1055949873.047255</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07081202363100797</v>
+        <v>0.08631020495649065</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04865097157224847</v>
+        <v>0.04691495240986084</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>708206344.4351618</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1235439364.742552</v>
+        <v>1169663608.752625</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1043876591709137</v>
+        <v>0.09273554512348546</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02936860521590583</v>
+        <v>0.02712090641588332</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>617719695.9272132</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2544150455.749651</v>
+        <v>2380914758.446025</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1644570998481865</v>
+        <v>0.191995733612125</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04756109681045329</v>
+        <v>0.04492997345782788</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>126</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1272075262.330365</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1276785596.659601</v>
+        <v>1489412030.567943</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08017168472360833</v>
+        <v>0.1102278224132076</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02635329660542148</v>
+        <v>0.02598194130182248</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>638392790.8117644</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1282525007.386403</v>
+        <v>1192525897.226379</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1176337540216573</v>
+        <v>0.07641346595640076</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03120914903106007</v>
+        <v>0.03737468122759797</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>641262460.340842</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2722563649.027631</v>
+        <v>2082933013.833321</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1659681953639649</v>
+        <v>0.1749636949826937</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01938045014012791</v>
+        <v>0.02700082594045797</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>106</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1361281828.683479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2314522016.38729</v>
+        <v>2345054923.295333</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08293734413451095</v>
+        <v>0.08781562721232154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04159617069558513</v>
+        <v>0.03725842474397296</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>113</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1157261078.762665</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1393882771.248939</v>
+        <v>1391495217.21965</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08648722525429482</v>
+        <v>0.09000689768139709</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03201853869554285</v>
+        <v>0.02729339978102488</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>696941449.8869413</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2151319004.386078</v>
+        <v>1542708999.516719</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1599588101723331</v>
+        <v>0.1310151381648657</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02210135463724181</v>
+        <v>0.03271133028839637</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1075659473.783236</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1360632789.79439</v>
+        <v>1652267087.951185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1270003100424665</v>
+        <v>0.115741001033272</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05676372917681303</v>
+        <v>0.05778554774248704</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>680316396.0053324</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2366486784.324179</v>
+        <v>1968879249.982132</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1136854050130583</v>
+        <v>0.1209842989317146</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02862019863127149</v>
+        <v>0.04598287564150885</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>106</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1183243430.507214</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4123095557.480512</v>
+        <v>2921146940.084208</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1101480636699984</v>
+        <v>0.1107479503729703</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04355547614858336</v>
+        <v>0.03779229121162585</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>135</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2061547816.494134</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2739369112.651917</v>
+        <v>2685542286.202838</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1416012864018891</v>
+        <v>0.2043185050098119</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01576400644254064</v>
+        <v>0.02127132469742403</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>145</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1369684580.918632</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2359019204.376671</v>
+        <v>1880519866.575022</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1018754390940869</v>
+        <v>0.081743704252683</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03399148189556964</v>
+        <v>0.03580470159830811</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1179509780.169112</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1758440631.303928</v>
+        <v>1962142664.243052</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1232583725877668</v>
+        <v>0.157464203834294</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04821243913748384</v>
+        <v>0.04999676717810859</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>879220282.193108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3795454643.304767</v>
+        <v>5485988388.853984</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1555862030377294</v>
+        <v>0.1407923082391969</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06060029933468965</v>
+        <v>0.05081832735500164</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>149</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1897727279.486347</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3978892860.437374</v>
+        <v>4655037957.336611</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1503576771965381</v>
+        <v>0.1307258624292495</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04939494515664351</v>
+        <v>0.055713560532017</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>112</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1989446428.163721</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3615226224.529636</v>
+        <v>3163197945.980174</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08341796954059477</v>
+        <v>0.07725564555630911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02504941971398079</v>
+        <v>0.02749954294183102</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>138</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1807613169.00081</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1760118890.679609</v>
+        <v>1707258897.139888</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1940601524742553</v>
+        <v>0.1204757767606909</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02864785626440986</v>
+        <v>0.04168166023450851</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>880059436.9527211</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3748639923.644308</v>
+        <v>3728223626.127286</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1140326372361473</v>
+        <v>0.1322799886204627</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04499124910726975</v>
+        <v>0.04902926718788966</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>143</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1874319968.39601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1405853505.7559</v>
+        <v>1520591354.3518</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1788703753368074</v>
+        <v>0.1837438993135942</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03884043739921654</v>
+        <v>0.0403472491357831</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>702926771.0831426</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3958538818.14718</v>
+        <v>4484795368.026753</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09053677255668623</v>
+        <v>0.1354903517669997</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04172295926192134</v>
+        <v>0.04796437284950722</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>172</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1979269468.007326</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2678122066.80498</v>
+        <v>2761397138.907355</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1884346456394222</v>
+        <v>0.1775507654201714</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02971209436200363</v>
+        <v>0.03344563199908814</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>121</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1339061088.100135</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3146250110.658742</v>
+        <v>4898402878.628329</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1264453457051033</v>
+        <v>0.1516791833184452</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04801523917695431</v>
+        <v>0.0320563985929723</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>136</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1573125052.354258</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3870052156.731108</v>
+        <v>4496747579.430625</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2219452968896203</v>
+        <v>0.2063859643292631</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03046384966458941</v>
+        <v>0.03155178469563214</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1935026047.554983</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1675033996.62484</v>
+        <v>1398562329.453553</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1138040633869124</v>
+        <v>0.1056457147837147</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0522903447092974</v>
+        <v>0.0582114062391848</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>837517014.6255225</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3704547642.612933</v>
+        <v>3060948833.427123</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1642319840483958</v>
+        <v>0.1597877115301866</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01851347651758268</v>
+        <v>0.02433877566769066</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>133</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1852273884.883598</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1866951289.379739</v>
+        <v>1854902838.086098</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1236665542061191</v>
+        <v>0.1345382289754771</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02724240096038667</v>
+        <v>0.02561006534988446</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>933475642.3490007</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4772087578.081062</v>
+        <v>4360025451.422763</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08238558814121413</v>
+        <v>0.08510922102795836</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04803595482929825</v>
+        <v>0.03903900574408758</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2386043727.766901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2339062928.774558</v>
+        <v>2644533242.42379</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1816752072103917</v>
+        <v>0.1631714486482614</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02509460098685198</v>
+        <v>0.02841637059587585</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>129</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1169531465.424151</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2288420120.184681</v>
+        <v>2807624286.744254</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1274944785056283</v>
+        <v>0.1154680040283843</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02693464534589236</v>
+        <v>0.02447151589642026</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>143</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1144210107.681277</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1463139972.603132</v>
+        <v>1929941832.92262</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1185260063677608</v>
+        <v>0.1794399227067859</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03423102292278658</v>
+        <v>0.04324630045145126</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>731569963.8435179</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3716601001.815873</v>
+        <v>4049543809.876071</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09979537813079534</v>
+        <v>0.07400610748133807</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04503719416002175</v>
+        <v>0.03772585009556498</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>118</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1858300575.94274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4478247666.050869</v>
+        <v>4956468640.036089</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1178755546864947</v>
+        <v>0.1533312849109874</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02499300347755493</v>
+        <v>0.02300030366140314</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>130</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2239123902.533368</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5708329282.35454</v>
+        <v>4138872802.9492</v>
       </c>
       <c r="F65" t="n">
-        <v>0.113177289239203</v>
+        <v>0.15783430433854</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02473723678467428</v>
+        <v>0.0236187226492085</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>150</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2854164557.834467</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4423232963.228151</v>
+        <v>5525407802.775565</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1355279711056585</v>
+        <v>0.1568653822117703</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04535436945726358</v>
+        <v>0.04809371223066709</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>123</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2211616477.889941</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2840350682.79428</v>
+        <v>2533236773.640616</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07646282463462555</v>
+        <v>0.09457059408682547</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03146032957040969</v>
+        <v>0.03428902986068269</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>133</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1420175373.162341</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5131763014.766496</v>
+        <v>5655054909.883552</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1178022813818744</v>
+        <v>0.1161388123226989</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03215297185802496</v>
+        <v>0.04889168021817687</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>132</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2565881571.784294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1934320189.743552</v>
+        <v>1837073321.485704</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1763949966043448</v>
+        <v>0.1215335251007744</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05918934076446207</v>
+        <v>0.05227300339796364</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>967160091.3504058</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3228774494.154066</v>
+        <v>3695755863.789791</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07627329101957675</v>
+        <v>0.1021911565566619</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03381400222595137</v>
+        <v>0.0362755867418834</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>119</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1614387238.949433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4176675949.269348</v>
+        <v>5004015641.129277</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1139441385890191</v>
+        <v>0.1282894025724524</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02432034148810301</v>
+        <v>0.0234681949904192</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>152</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2088338018.926643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1932809326.574574</v>
+        <v>1532449059.767052</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08294638466155127</v>
+        <v>0.08015494805701072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0483620864140068</v>
+        <v>0.03945568665932048</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>966404620.4558979</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2737564019.961118</v>
+        <v>2964236243.348295</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0913696333142628</v>
+        <v>0.07380283695918199</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04100591490837265</v>
+        <v>0.03201100967142095</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>158</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1368782030.021028</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2711228595.127019</v>
+        <v>3275810422.884145</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1643327693567834</v>
+        <v>0.1551915615791357</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02870704827891029</v>
+        <v>0.03482609733892723</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>142</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1355614387.958073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1774375508.227521</v>
+        <v>1525610895.177965</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1201347842115748</v>
+        <v>0.1212074637055554</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02489174701360168</v>
+        <v>0.0363669105644344</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>887187739.4341362</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4805816288.417891</v>
+        <v>4889153515.539314</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1214951783123335</v>
+        <v>0.1217178809460955</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02959243620084087</v>
+        <v>0.03176229282729365</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>93</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2402908162.703567</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1412694069.709347</v>
+        <v>2184052261.188682</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1805810481256572</v>
+        <v>0.114518541937282</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03077305145722223</v>
+        <v>0.0272990006635029</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>706347009.6905718</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4492911784.03486</v>
+        <v>4559531822.363437</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1210222139592149</v>
+        <v>0.1089703461488613</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04443138433444902</v>
+        <v>0.04519505365408522</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>145</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2246455822.48423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1399855329.563903</v>
+        <v>1501656831.897389</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1334778397011205</v>
+        <v>0.1428068248035081</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03015786890675014</v>
+        <v>0.03743727416653966</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>699927681.457932</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5402973211.758123</v>
+        <v>5507400907.105125</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0783740195131338</v>
+        <v>0.06907797031114547</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0344260721716405</v>
+        <v>0.02755768184947337</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2701486675.133176</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4760805366.086235</v>
+        <v>4460817425.238895</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09019662827629883</v>
+        <v>0.1264925193311144</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02882756279116086</v>
+        <v>0.02917484028416568</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2380402674.521535</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5147502426.454489</v>
+        <v>5651998758.840425</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1387898110937444</v>
+        <v>0.1806516572996511</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02822538734932443</v>
+        <v>0.02229122753095012</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>147</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2573751188.973627</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2216546308.589113</v>
+        <v>2435677056.220188</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1017660496902314</v>
+        <v>0.09628327296510185</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02991698524479181</v>
+        <v>0.03428253547624825</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1108273166.59168</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2527041928.325317</v>
+        <v>2007115829.978124</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1019522535991149</v>
+        <v>0.08907202885753518</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04494434487880243</v>
+        <v>0.0380642103980335</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1263520891.976458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3522881136.433266</v>
+        <v>3663080059.667224</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1710207593620773</v>
+        <v>0.1282778787520868</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03680796399067456</v>
+        <v>0.04973567104720938</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>157</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1761440686.090597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2040668750.057317</v>
+        <v>2420222903.08692</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1122909786706695</v>
+        <v>0.1223022898377967</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02373872084650836</v>
+        <v>0.02111972171067939</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>54</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1020334408.331362</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1273294834.178545</v>
+        <v>1359564146.511299</v>
       </c>
       <c r="F87" t="n">
-        <v>0.123705059316495</v>
+        <v>0.1664637067816008</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03289315839271943</v>
+        <v>0.03017073321602428</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>636647491.4939129</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2897690747.235548</v>
+        <v>3673173486.509977</v>
       </c>
       <c r="F88" t="n">
-        <v>0.117755279072134</v>
+        <v>0.1382374163672196</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0251951789592795</v>
+        <v>0.03758389430097089</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>166</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1448845393.959438</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2262396974.975696</v>
+        <v>2902242098.305219</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1324067946894651</v>
+        <v>0.1123964929122192</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04075130157476963</v>
+        <v>0.0359372744959905</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>140</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1131198579.676637</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1926449567.598547</v>
+        <v>2139769915.833892</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08500055535922522</v>
+        <v>0.0886179993513654</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03687606138385646</v>
+        <v>0.05484329975119211</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>963224840.6302049</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2007590689.486309</v>
+        <v>1854041594.4271</v>
       </c>
       <c r="F91" t="n">
-        <v>0.134666621063825</v>
+        <v>0.1793168720728498</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05000523809951236</v>
+        <v>0.03846445697648508</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1003795315.99787</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2592179060.753705</v>
+        <v>2937769979.087839</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1071803590117475</v>
+        <v>0.09313897820753987</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04591747754960124</v>
+        <v>0.02891389022759348</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>120</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1296089521.298848</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3154603077.78465</v>
+        <v>4683826368.406317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1211632813789092</v>
+        <v>0.1423819328724634</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03924723401982939</v>
+        <v>0.04557131129035008</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>124</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1577301594.19294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2069048149.054128</v>
+        <v>2160365806.427025</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1367779949128116</v>
+        <v>0.1272263640455974</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03002928611733867</v>
+        <v>0.02999526047697529</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1034524081.867396</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2238501733.054489</v>
+        <v>2540233656.420748</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1163666546233604</v>
+        <v>0.1283347428641159</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04467183891130033</v>
+        <v>0.04027208608243922</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>102</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1119250921.642236</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1525572605.219761</v>
+        <v>1762074453.67958</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1096466827595065</v>
+        <v>0.1083327763253217</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04035236758264472</v>
+        <v>0.04290681120827528</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>762786340.2652464</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4666662528.249125</v>
+        <v>4919980851.134546</v>
       </c>
       <c r="F97" t="n">
-        <v>0.173895793343148</v>
+        <v>0.1095895265617783</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02333873457269535</v>
+        <v>0.02862335144623979</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>134</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2333331374.144237</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2839382828.456591</v>
+        <v>3342983177.274546</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1006430814314248</v>
+        <v>0.1280232050100662</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03034262854590365</v>
+        <v>0.03039587688203954</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>110</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1419691388.052429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3132918518.719424</v>
+        <v>3323179484.555121</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1285130361286067</v>
+        <v>0.09068271016857081</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02271070039202521</v>
+        <v>0.03390671415579772</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>131</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1566459254.927872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3359989403.593373</v>
+        <v>3405307884.815345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1454510643061582</v>
+        <v>0.1156555783950152</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02303235687218286</v>
+        <v>0.01723812017935876</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>130</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1679994721.393066</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3208013093.456191</v>
+        <v>2891573575.936566</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2080295673740614</v>
+        <v>0.1814026595975082</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04918193610384993</v>
+        <v>0.03991740682286586</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>169</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1604006663.295402</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_418.xlsx
+++ b/output/fit_clients/fit_round_418.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1821846667.582281</v>
+        <v>1889638721.773883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1136002010792882</v>
+        <v>0.08230997548826983</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04528818746650131</v>
+        <v>0.02800118525484131</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1950190497.051553</v>
+        <v>1851447193.172634</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1741383956940665</v>
+        <v>0.1681942620162345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03153572033325801</v>
+        <v>0.03580226180509405</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4626697470.05918</v>
+        <v>4639996560.580876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1175515647171227</v>
+        <v>0.154179048755808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03352057805323606</v>
+        <v>0.02895572729212986</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3120703061.776661</v>
+        <v>3928253254.198944</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07754491583366391</v>
+        <v>0.07505144337444498</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04666982960171802</v>
+        <v>0.04641557873295338</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2333696371.876208</v>
+        <v>2585485491.740652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1270990426611993</v>
+        <v>0.1014773431670233</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03736600201190522</v>
+        <v>0.04560980574096131</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2044288362.892535</v>
+        <v>2393613459.082731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09557582536819545</v>
+        <v>0.07499715121573301</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03172318300283423</v>
+        <v>0.03930033700063421</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2481942265.751062</v>
+        <v>2523546039.572636</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2030276150202516</v>
+        <v>0.1546603228615571</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0265366719963682</v>
+        <v>0.02348878390507565</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2234881519.740186</v>
+        <v>2136197735.431501</v>
       </c>
       <c r="F9" t="n">
-        <v>0.171440729309057</v>
+        <v>0.164511150693973</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0248537220912134</v>
+        <v>0.02490223977222742</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5848751255.738053</v>
+        <v>5449043102.693316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1721730916574285</v>
+        <v>0.1391435568592903</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03443100866419958</v>
+        <v>0.04661782620713858</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2943567688.496065</v>
+        <v>4255025254.213255</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1481000651708871</v>
+        <v>0.1695175651586328</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04041302533370768</v>
+        <v>0.03088105855901829</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2635347669.797791</v>
+        <v>2888152763.873798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.172599467598976</v>
+        <v>0.13488370976952</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04457903639374394</v>
+        <v>0.05219619815315917</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3309183141.453534</v>
+        <v>3432036635.155912</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06387357712322725</v>
+        <v>0.06742667603937028</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02514549401448384</v>
+        <v>0.02856302156621681</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3276860515.823192</v>
+        <v>2866245658.586425</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1757243621586512</v>
+        <v>0.1619233209375883</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03207331679293551</v>
+        <v>0.03455277388955796</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1130620281.513548</v>
+        <v>1351868305.327091</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06589203214339182</v>
+        <v>0.07338351814978</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03159670962437441</v>
+        <v>0.04124664506715017</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2660438299.124872</v>
+        <v>2185013261.036954</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07340416204541897</v>
+        <v>0.1021306518366076</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03855235838689873</v>
+        <v>0.04614367605793104</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3999629840.8825</v>
+        <v>3982041571.573501</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1138128666211201</v>
+        <v>0.1269000922720333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05279258113279794</v>
+        <v>0.04429173772351581</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2726513569.36068</v>
+        <v>2716310789.341732</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1773631786654446</v>
+        <v>0.1736884404971422</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02503042321871319</v>
+        <v>0.02106819224150705</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1209799939.918308</v>
+        <v>1164812294.360773</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1423903076746729</v>
+        <v>0.1478497445009288</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02284863274182588</v>
+        <v>0.02030688769940995</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1935895023.024827</v>
+        <v>1749799785.948335</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1353982097866159</v>
+        <v>0.09753781787908106</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02078485652166926</v>
+        <v>0.03184802524518634</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2633537483.636658</v>
+        <v>1770776465.20236</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07716855865859218</v>
+        <v>0.06812849223861288</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04042188423326101</v>
+        <v>0.0318932944885123</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3127299954.947779</v>
+        <v>3799139303.256264</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1277443160330928</v>
+        <v>0.1025101258226227</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04367179061991044</v>
+        <v>0.0519473703920233</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1442898864.388615</v>
+        <v>1026100355.493373</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1543683155202052</v>
+        <v>0.1680606100504803</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05038943958032215</v>
+        <v>0.04553015003493262</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3864131388.120437</v>
+        <v>3754313287.917648</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451811410541913</v>
+        <v>0.1406994140618369</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0238492961648967</v>
+        <v>0.03046202184198302</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1375541209.126156</v>
+        <v>1156983553.952801</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09817245521103332</v>
+        <v>0.1165274086236617</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02225612059828396</v>
+        <v>0.0251462895618789</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1162320126.787745</v>
+        <v>1421021419.585168</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1182152406642074</v>
+        <v>0.1083508730594035</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03671831731128255</v>
+        <v>0.03189882404873534</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4036426741.948452</v>
+        <v>4617832211.342481</v>
       </c>
       <c r="F27" t="n">
-        <v>0.130420225614898</v>
+        <v>0.1111116148877905</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02170285274889276</v>
+        <v>0.02537731286147974</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2622660716.420536</v>
+        <v>2788270060.958867</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1326795866629377</v>
+        <v>0.1080301701833603</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04381532211849624</v>
+        <v>0.04591271109710068</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3601631073.068886</v>
+        <v>5119036862.829307</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1376224103323654</v>
+        <v>0.1299484677934086</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03902224570131712</v>
+        <v>0.02883425402073378</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2180807632.266063</v>
+        <v>2402945383.302003</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1064496302763471</v>
+        <v>0.08900731869575364</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03832647349426536</v>
+        <v>0.02823139882824756</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1055949873.047255</v>
+        <v>923801185.3092699</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08631020495649065</v>
+        <v>0.08796866058827783</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04691495240986084</v>
+        <v>0.03696735664556419</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1169663608.752625</v>
+        <v>1684536105.191431</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09273554512348546</v>
+        <v>0.1034532495798521</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02712090641588332</v>
+        <v>0.03473178603354261</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2380914758.446025</v>
+        <v>2029772602.376071</v>
       </c>
       <c r="F33" t="n">
-        <v>0.191995733612125</v>
+        <v>0.140215126480305</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04492997345782788</v>
+        <v>0.03881279880336897</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1489412030.567943</v>
+        <v>1327651860.547007</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1102278224132076</v>
+        <v>0.07857497150113268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02598194130182248</v>
+        <v>0.02651170923303499</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1192525897.226379</v>
+        <v>1345284045.383319</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07641346595640076</v>
+        <v>0.0735611194766211</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03737468122759797</v>
+        <v>0.03721392976321096</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2082933013.833321</v>
+        <v>2763535003.277041</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1749636949826937</v>
+        <v>0.1569452078028396</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02700082594045797</v>
+        <v>0.02779227099218902</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2345054923.295333</v>
+        <v>1889945218.584823</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08781562721232154</v>
+        <v>0.1112612344170515</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03725842474397296</v>
+        <v>0.0404308206643651</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1391495217.21965</v>
+        <v>1804838033.643806</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09000689768139709</v>
+        <v>0.07562573442344273</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02729339978102488</v>
+        <v>0.03811276015939377</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1542708999.516719</v>
+        <v>1924077407.676943</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1310151381648657</v>
+        <v>0.1613379576809471</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03271133028839637</v>
+        <v>0.02127984516289244</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1652267087.951185</v>
+        <v>1572343698.56174</v>
       </c>
       <c r="F40" t="n">
-        <v>0.115741001033272</v>
+        <v>0.1625017712933386</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05778554774248704</v>
+        <v>0.04953203056537854</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1968879249.982132</v>
+        <v>2758511061.101565</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1209842989317146</v>
+        <v>0.121465700544135</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04598287564150885</v>
+        <v>0.03951618587204441</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2921146940.084208</v>
+        <v>3527644984.114677</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1107479503729703</v>
+        <v>0.1022681370795522</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03779229121162585</v>
+        <v>0.03043005859439028</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2685542286.202838</v>
+        <v>2711361037.593863</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2043185050098119</v>
+        <v>0.1675102141368437</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02127132469742403</v>
+        <v>0.02182907889680409</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1880519866.575022</v>
+        <v>1925440638.598424</v>
       </c>
       <c r="F44" t="n">
-        <v>0.081743704252683</v>
+        <v>0.09516662287713926</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03580470159830811</v>
+        <v>0.02583791189965686</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1962142664.243052</v>
+        <v>2033502740.721246</v>
       </c>
       <c r="F45" t="n">
-        <v>0.157464203834294</v>
+        <v>0.1299953546545125</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04999676717810859</v>
+        <v>0.04289349479700919</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5485988388.853984</v>
+        <v>5548113643.324931</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1407923082391969</v>
+        <v>0.178128459730727</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05081832735500164</v>
+        <v>0.04550406573278863</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4655037957.336611</v>
+        <v>5072364426.9085</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1307258624292495</v>
+        <v>0.1607511732741254</v>
       </c>
       <c r="G47" t="n">
-        <v>0.055713560532017</v>
+        <v>0.03889708849860087</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3163197945.980174</v>
+        <v>3419631115.79004</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07725564555630911</v>
+        <v>0.102884492303716</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02749954294183102</v>
+        <v>0.03055512088274849</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1707258897.139888</v>
+        <v>1795648154.45401</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1204757767606909</v>
+        <v>0.1795551330434306</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04168166023450851</v>
+        <v>0.04329732000169131</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3728223626.127286</v>
+        <v>4148058033.530057</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1322799886204627</v>
+        <v>0.1371933702659437</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04902926718788966</v>
+        <v>0.03961972306568978</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1520591354.3518</v>
+        <v>1504563429.897095</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1837438993135942</v>
+        <v>0.1689055182012825</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0403472491357831</v>
+        <v>0.04802225830543837</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4484795368.026753</v>
+        <v>4709148753.035971</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1354903517669997</v>
+        <v>0.1032754678436272</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04796437284950722</v>
+        <v>0.03883318733502726</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2761397138.907355</v>
+        <v>3380446904.182116</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1775507654201714</v>
+        <v>0.149521644979685</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03344563199908814</v>
+        <v>0.03191789963470427</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4898402878.628329</v>
+        <v>3489382893.437824</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1516791833184452</v>
+        <v>0.1394887562577345</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0320563985929723</v>
+        <v>0.04722916030557186</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4496747579.430625</v>
+        <v>3633832466.836732</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2063859643292631</v>
+        <v>0.1653842201337004</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03155178469563214</v>
+        <v>0.03067337351125434</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1398562329.453553</v>
+        <v>1675068193.827512</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1056457147837147</v>
+        <v>0.1612750099703449</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0582114062391848</v>
+        <v>0.04340009459583991</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3060948833.427123</v>
+        <v>4118254874.272181</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1597877115301866</v>
+        <v>0.1598942434403509</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02433877566769066</v>
+        <v>0.01744103434764986</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1854902838.086098</v>
+        <v>1745878152.394423</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1345382289754771</v>
+        <v>0.1788438898378324</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02561006534988446</v>
+        <v>0.03445208088082088</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4360025451.422763</v>
+        <v>4482813717.983307</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08510922102795836</v>
+        <v>0.1293419944049304</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03903900574408758</v>
+        <v>0.03103443010146152</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2644533242.42379</v>
+        <v>2362082226.645376</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1631714486482614</v>
+        <v>0.1298725166576278</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02841637059587585</v>
+        <v>0.0264012478562247</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2807624286.744254</v>
+        <v>3033575963.373775</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1154680040283843</v>
+        <v>0.1412500719165133</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02447151589642026</v>
+        <v>0.03281965980424367</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1929941832.92262</v>
+        <v>2020909306.717996</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1794399227067859</v>
+        <v>0.1385605206277991</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04324630045145126</v>
+        <v>0.04294464802618755</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4049543809.876071</v>
+        <v>3891827329.620907</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07400610748133807</v>
+        <v>0.0857398609344765</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03772585009556498</v>
+        <v>0.03361532514017417</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4956468640.036089</v>
+        <v>4588284629.990594</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1533312849109874</v>
+        <v>0.1264606820012853</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02300030366140314</v>
+        <v>0.02761421748208371</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4138872802.9492</v>
+        <v>4882261938.404198</v>
       </c>
       <c r="F65" t="n">
-        <v>0.15783430433854</v>
+        <v>0.1092444054736659</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0236187226492085</v>
+        <v>0.02970878681959034</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5525407802.775565</v>
+        <v>4062791715.510636</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1568653822117703</v>
+        <v>0.1096596449526333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04809371223066709</v>
+        <v>0.04115607703462236</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2533236773.640616</v>
+        <v>2794341384.058216</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09457059408682547</v>
+        <v>0.07909796089262446</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03428902986068269</v>
+        <v>0.03696137713970548</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5655054909.883552</v>
+        <v>4972230431.791519</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1161388123226989</v>
+        <v>0.1094098094222482</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04889168021817687</v>
+        <v>0.04958230403861118</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1837073321.485704</v>
+        <v>1507926939.340132</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1215335251007744</v>
+        <v>0.141469812535632</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05227300339796364</v>
+        <v>0.04668939413096951</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3695755863.789791</v>
+        <v>3618759494.448149</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021911565566619</v>
+        <v>0.08964697179953773</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0362755867418834</v>
+        <v>0.03784292153127313</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5004015641.129277</v>
+        <v>4847336666.052353</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1282894025724524</v>
+        <v>0.1170825321715835</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0234681949904192</v>
+        <v>0.02515324248633394</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1532449059.767052</v>
+        <v>1523042905.672081</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08015494805701072</v>
+        <v>0.0697954772576843</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03945568665932048</v>
+        <v>0.03374395722018106</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2964236243.348295</v>
+        <v>3148789641.84629</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07380283695918199</v>
+        <v>0.08057023425015448</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03201100967142095</v>
+        <v>0.0431983695361158</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3275810422.884145</v>
+        <v>3012142842.204437</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1551915615791357</v>
+        <v>0.1230586575464516</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03482609733892723</v>
+        <v>0.03262636304058487</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1525610895.177965</v>
+        <v>2382297694.548189</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1212074637055554</v>
+        <v>0.1235777988692128</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0363669105644344</v>
+        <v>0.02951226867061609</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4889153515.539314</v>
+        <v>3593258315.993038</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1217178809460955</v>
+        <v>0.08857385596211155</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03176229282729365</v>
+        <v>0.02696659094850255</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2184052261.188682</v>
+        <v>1836431550.627151</v>
       </c>
       <c r="F77" t="n">
-        <v>0.114518541937282</v>
+        <v>0.1566069781890418</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0272990006635029</v>
+        <v>0.02123216711835361</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4559531822.363437</v>
+        <v>3726976449.161561</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1089703461488613</v>
+        <v>0.1096544823923672</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04519505365408522</v>
+        <v>0.04055216396740309</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1501656831.897389</v>
+        <v>1266389056.030372</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1428068248035081</v>
+        <v>0.1595406636974716</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03743727416653966</v>
+        <v>0.03991091408449468</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5507400907.105125</v>
+        <v>5227668631.800112</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06907797031114547</v>
+        <v>0.1015452145850425</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02755768184947337</v>
+        <v>0.03067852272848251</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4460817425.238895</v>
+        <v>3652037563.276764</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1264925193311144</v>
+        <v>0.09281577821260302</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02917484028416568</v>
+        <v>0.02067625217179917</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5651998758.840425</v>
+        <v>3951084756.416614</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1806516572996511</v>
+        <v>0.2097612056735763</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02229122753095012</v>
+        <v>0.02096084031456844</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2435677056.220188</v>
+        <v>2066509796.609225</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09628327296510185</v>
+        <v>0.1147959252080321</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03428253547624825</v>
+        <v>0.03358650353081249</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2007115829.978124</v>
+        <v>1697153283.812296</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08907202885753518</v>
+        <v>0.09166772659475597</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0380642103980335</v>
+        <v>0.04543276919719185</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3663080059.667224</v>
+        <v>2831520188.704328</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1282778787520868</v>
+        <v>0.1707630664769705</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04973567104720938</v>
+        <v>0.04088990335640696</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2420222903.08692</v>
+        <v>2449112158.664138</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1223022898377967</v>
+        <v>0.1514532117947965</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02111972171067939</v>
+        <v>0.0226754217862276</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1359564146.511299</v>
+        <v>1425175069.713386</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1664637067816008</v>
+        <v>0.1723432218692862</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03017073321602428</v>
+        <v>0.03004000398968949</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3673173486.509977</v>
+        <v>3144006567.484646</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1382374163672196</v>
+        <v>0.1520589837924353</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03758389430097089</v>
+        <v>0.03737015614128347</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2902242098.305219</v>
+        <v>2445129234.416603</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1123964929122192</v>
+        <v>0.1493021017255033</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0359372744959905</v>
+        <v>0.04132736463556911</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2139769915.833892</v>
+        <v>1863569581.6246</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0886179993513654</v>
+        <v>0.1030735626984115</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05484329975119211</v>
+        <v>0.05346222519919157</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1854041594.4271</v>
+        <v>1668759485.696174</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1793168720728498</v>
+        <v>0.1500244295782771</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03846445697648508</v>
+        <v>0.04405111413498649</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2937769979.087839</v>
+        <v>2461393196.104609</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09313897820753987</v>
+        <v>0.07344659501117369</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02891389022759348</v>
+        <v>0.04321606954879888</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4683826368.406317</v>
+        <v>4118806827.62119</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1423819328724634</v>
+        <v>0.1235608853898828</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04557131129035008</v>
+        <v>0.03948451607834645</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2160365806.427025</v>
+        <v>2096356088.378503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1272263640455974</v>
+        <v>0.1238073624787516</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02999526047697529</v>
+        <v>0.02846565103838854</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2540233656.420748</v>
+        <v>2070582074.163136</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1283347428641159</v>
+        <v>0.1375873325035138</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04027208608243922</v>
+        <v>0.05039642295699066</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1762074453.67958</v>
+        <v>1459240803.345066</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1083327763253217</v>
+        <v>0.1171696214246171</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04290681120827528</v>
+        <v>0.03180179334235259</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4919980851.134546</v>
+        <v>5328227800.461028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1095895265617783</v>
+        <v>0.1211201033195969</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02862335144623979</v>
+        <v>0.02644825961309043</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3342983177.274546</v>
+        <v>3759412033.202562</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1280232050100662</v>
+        <v>0.08959204489372022</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03039587688203954</v>
+        <v>0.02092153993722012</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3323179484.555121</v>
+        <v>3023900487.873574</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09068271016857081</v>
+        <v>0.1113451800685132</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03390671415579772</v>
+        <v>0.03368553695590648</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3405307884.815345</v>
+        <v>3706189414.351453</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1156555783950152</v>
+        <v>0.1318920096169589</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01723812017935876</v>
+        <v>0.01725234247730485</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2891573575.936566</v>
+        <v>2805369631.879134</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1814026595975082</v>
+        <v>0.1626534458105792</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03991740682286586</v>
+        <v>0.04272896034360334</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_418.xlsx
+++ b/output/fit_clients/fit_round_418.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1889638721.773883</v>
+        <v>1931127817.78921</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08230997548826983</v>
+        <v>0.09640519616333704</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02800118525484131</v>
+        <v>0.03188007830018616</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1851447193.172634</v>
+        <v>1985857253.913714</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1681942620162345</v>
+        <v>0.182037891356779</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03580226180509405</v>
+        <v>0.03936433063485995</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4639996560.580876</v>
+        <v>4060237456.84628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.154179048755808</v>
+        <v>0.1268567237366406</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02895572729212986</v>
+        <v>0.03714779511751199</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>212</v>
+      </c>
+      <c r="J4" t="n">
+        <v>417</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.24622573444045</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3928253254.198944</v>
+        <v>2806276052.793998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07505144337444498</v>
+        <v>0.1047552729616986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04641557873295338</v>
+        <v>0.04165317343602654</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>173</v>
+      </c>
+      <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2585485491.740652</v>
+        <v>2087526466.980017</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1014773431670233</v>
+        <v>0.1176886746043845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04560980574096131</v>
+        <v>0.04523877584138688</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2393613459.082731</v>
+        <v>2876067515.096003</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07499715121573301</v>
+        <v>0.07460891772353247</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03930033700063421</v>
+        <v>0.04364874496015195</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2523546039.572636</v>
+        <v>2820737618.120564</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1546603228615571</v>
+        <v>0.1616514046231612</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02348878390507565</v>
+        <v>0.02246424749501941</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>113</v>
+      </c>
+      <c r="J8" t="n">
+        <v>412</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2136197735.431501</v>
+        <v>2123475431.027685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.164511150693973</v>
+        <v>0.1831750779155218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02490223977222742</v>
+        <v>0.02863364537919118</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5449043102.693316</v>
+        <v>4575558140.374603</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1391435568592903</v>
+        <v>0.1572702249771795</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04661782620713858</v>
+        <v>0.03507108082275638</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>334</v>
+      </c>
+      <c r="J10" t="n">
+        <v>417</v>
+      </c>
+      <c r="K10" t="n">
+        <v>40.15438243641434</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4255025254.213255</v>
+        <v>3050236733.046731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1695175651586328</v>
+        <v>0.1197438960160047</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03088105855901829</v>
+        <v>0.04352174429547338</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>173</v>
+      </c>
+      <c r="J11" t="n">
+        <v>417</v>
+      </c>
+      <c r="K11" t="n">
+        <v>35.16468218853213</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2888152763.873798</v>
+        <v>3298488156.338964</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13488370976952</v>
+        <v>0.1981797284847926</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05219619815315917</v>
+        <v>0.04492496964496607</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3432036635.155912</v>
+        <v>3772133764.312099</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06742667603937028</v>
+        <v>0.08874987799368798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02856302156621681</v>
+        <v>0.02278183932140532</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>218</v>
+      </c>
+      <c r="J13" t="n">
+        <v>418</v>
+      </c>
+      <c r="K13" t="n">
+        <v>42.51964882928726</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2866245658.586425</v>
+        <v>3815299779.248623</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1619233209375883</v>
+        <v>0.1681536402110797</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03455277388955796</v>
+        <v>0.04281003389800372</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>86</v>
+      </c>
+      <c r="J14" t="n">
+        <v>418</v>
+      </c>
+      <c r="K14" t="n">
+        <v>66.3207662652591</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +960,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1351868305.327091</v>
+        <v>1727158296.203011</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07338351814978</v>
+        <v>0.09334583231773701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04124664506715017</v>
+        <v>0.04816060868908086</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +1001,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2185013261.036954</v>
+        <v>2608434078.908616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1021306518366076</v>
+        <v>0.07366182006918919</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04614367605793104</v>
+        <v>0.03710371835121437</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1030,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3982041571.573501</v>
+        <v>4459852369.052826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1269000922720333</v>
+        <v>0.1348941402588341</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04429173772351581</v>
+        <v>0.04834037906566824</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>202</v>
+      </c>
+      <c r="J17" t="n">
+        <v>418</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2716310789.341732</v>
+        <v>2864915196.133131</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1736884404971422</v>
+        <v>0.1791005632919375</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02106819224150705</v>
+        <v>0.02351169590814417</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>108</v>
+      </c>
+      <c r="J18" t="n">
+        <v>416</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1164812294.360773</v>
+        <v>1294962987.778444</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1478497445009288</v>
+        <v>0.1403847692028232</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02030688769940995</v>
+        <v>0.01853366599454456</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1749799785.948335</v>
+        <v>2654874503.279366</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09753781787908106</v>
+        <v>0.09735256385564789</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03184802524518634</v>
+        <v>0.02118884145576536</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1770776465.20236</v>
+        <v>1887416446.991977</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06812849223861288</v>
+        <v>0.0772987101554289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0318932944885123</v>
+        <v>0.03652759552067635</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3799139303.256264</v>
+        <v>3243007417.396607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1025101258226227</v>
+        <v>0.1014347596685626</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0519473703920233</v>
+        <v>0.0413600544061159</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>117</v>
+      </c>
+      <c r="J22" t="n">
+        <v>416</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1026100355.493373</v>
+        <v>1527893664.185476</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1680606100504803</v>
+        <v>0.1126080661663669</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04553015003493262</v>
+        <v>0.04172259800511798</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3754313287.917648</v>
+        <v>3747564074.829685</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1406994140618369</v>
+        <v>0.124511659136077</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03046202184198302</v>
+        <v>0.02445675737438757</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>131</v>
+      </c>
+      <c r="J24" t="n">
+        <v>418</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1156983553.952801</v>
+        <v>1268128394.18228</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1165274086236617</v>
+        <v>0.07443381960872257</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0251462895618789</v>
+        <v>0.02083662915372319</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1421021419.585168</v>
+        <v>1402339111.768673</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1083508730594035</v>
+        <v>0.08593252303858689</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03189882404873534</v>
+        <v>0.0268913681140474</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4617832211.342481</v>
+        <v>3009507066.970637</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1111116148877905</v>
+        <v>0.1320786983959119</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02537731286147974</v>
+        <v>0.0209800013941774</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>178</v>
+      </c>
+      <c r="J27" t="n">
+        <v>417</v>
+      </c>
+      <c r="K27" t="n">
+        <v>29.18966253146762</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2788270060.958867</v>
+        <v>2627158997.049495</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1080301701833603</v>
+        <v>0.1080929117608398</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04591271109710068</v>
+        <v>0.03130399795658764</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>103</v>
+      </c>
+      <c r="J28" t="n">
+        <v>415</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5119036862.829307</v>
+        <v>4515202037.705585</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1299484677934086</v>
+        <v>0.128058574896224</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02883425402073378</v>
+        <v>0.03931935484240458</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>349</v>
+      </c>
+      <c r="J29" t="n">
+        <v>418</v>
+      </c>
+      <c r="K29" t="n">
+        <v>42.92524003484907</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2402945383.302003</v>
+        <v>1477332204.142665</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08900731869575364</v>
+        <v>0.08617229768946465</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02823139882824756</v>
+        <v>0.02529248947199866</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>923801185.3092699</v>
+        <v>1166380985.064106</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08796866058827783</v>
+        <v>0.08583457744155612</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03696735664556419</v>
+        <v>0.03960239550910074</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1684536105.191431</v>
+        <v>1612799465.092364</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1034532495798521</v>
+        <v>0.1038766385613153</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03473178603354261</v>
+        <v>0.02400463235424275</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2029772602.376071</v>
+        <v>2543120921.920591</v>
       </c>
       <c r="F33" t="n">
-        <v>0.140215126480305</v>
+        <v>0.1591999539781744</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03881279880336897</v>
+        <v>0.05072098768120386</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1327651860.547007</v>
+        <v>1469078041.115664</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07857497150113268</v>
+        <v>0.07455899272019997</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02651170923303499</v>
+        <v>0.02617675174779596</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345284045.383319</v>
+        <v>1200839028.852854</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0735611194766211</v>
+        <v>0.07732083112624381</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03721392976321096</v>
+        <v>0.03910515001479908</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2763535003.277041</v>
+        <v>2632954632.694355</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1569452078028396</v>
+        <v>0.1480139844668664</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02779227099218902</v>
+        <v>0.02588770647171077</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1889945218.584823</v>
+        <v>2886616166.64895</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1112612344170515</v>
+        <v>0.1107048435957479</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0404308206643651</v>
+        <v>0.04169225816539514</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1775,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1804838033.643806</v>
+        <v>2019787832.83102</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07562573442344273</v>
+        <v>0.09734450568473176</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03811276015939377</v>
+        <v>0.03897132159785512</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1924077407.676943</v>
+        <v>1423153552.789856</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1613379576809471</v>
+        <v>0.1827121726846868</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02127984516289244</v>
+        <v>0.02070093255031755</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1572343698.56174</v>
+        <v>1390322747.471704</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1625017712933386</v>
+        <v>0.1319140010171228</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04953203056537854</v>
+        <v>0.05632285861005767</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2758511061.101565</v>
+        <v>2326415079.635782</v>
       </c>
       <c r="F41" t="n">
-        <v>0.121465700544135</v>
+        <v>0.1354521906544107</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03951618587204441</v>
+        <v>0.03668597761582379</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3527644984.114677</v>
+        <v>2751854253.726645</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1022681370795522</v>
+        <v>0.1088813918919302</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03043005859439028</v>
+        <v>0.0444277007704908</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>179</v>
+      </c>
+      <c r="J42" t="n">
+        <v>416</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2711361037.593863</v>
+        <v>2525813533.568188</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1675102141368437</v>
+        <v>0.1863746412828144</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02182907889680409</v>
+        <v>0.01740095891942616</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1925440638.598424</v>
+        <v>1861240343.488122</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09516662287713926</v>
+        <v>0.08172552393346605</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02583791189965686</v>
+        <v>0.03252010237474946</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2033502740.721246</v>
+        <v>1733125359.128101</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1299953546545125</v>
+        <v>0.1336464503561731</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04289349479700919</v>
+        <v>0.03830397833103764</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5548113643.324931</v>
+        <v>5131498381.576608</v>
       </c>
       <c r="F46" t="n">
-        <v>0.178128459730727</v>
+        <v>0.1581443334359784</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04550406573278863</v>
+        <v>0.04296528429568231</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>250</v>
+      </c>
+      <c r="J46" t="n">
+        <v>418</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5072364426.9085</v>
+        <v>3379497988.483458</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1607511732741254</v>
+        <v>0.1531322971967807</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03889708849860087</v>
+        <v>0.05347095515658636</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>187</v>
+      </c>
+      <c r="J47" t="n">
+        <v>417</v>
+      </c>
+      <c r="K47" t="n">
+        <v>35.09997141813437</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3419631115.79004</v>
+        <v>3636867851.45014</v>
       </c>
       <c r="F48" t="n">
-        <v>0.102884492303716</v>
+        <v>0.1069975625914456</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03055512088274849</v>
+        <v>0.0337070644792203</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>214</v>
+      </c>
+      <c r="J48" t="n">
+        <v>418</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1795648154.45401</v>
+        <v>1557228103.898435</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1795551330434306</v>
+        <v>0.1570867824464026</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04329732000169131</v>
+        <v>0.04345989444190377</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4148058033.530057</v>
+        <v>3230464633.417558</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1371933702659437</v>
+        <v>0.173660559469264</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03961972306568978</v>
+        <v>0.04211704583187981</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>144</v>
+      </c>
+      <c r="J50" t="n">
+        <v>417</v>
+      </c>
+      <c r="K50" t="n">
+        <v>37.42128128916339</v>
       </c>
     </row>
     <row r="51">
@@ -1858,17 +2234,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1504563429.897095</v>
+        <v>1250464424.921808</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1689055182012825</v>
+        <v>0.142510882573106</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04802225830543837</v>
+        <v>0.04155373152987461</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4709148753.035971</v>
+        <v>4167769735.129427</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1032754678436272</v>
+        <v>0.116497307748125</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03883318733502726</v>
+        <v>0.04481759137106881</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>241</v>
+      </c>
+      <c r="J52" t="n">
+        <v>418</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3380446904.182116</v>
+        <v>3483271881.441941</v>
       </c>
       <c r="F53" t="n">
-        <v>0.149521644979685</v>
+        <v>0.1357248198992998</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03191789963470427</v>
+        <v>0.02927054127894578</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>60</v>
+      </c>
+      <c r="J53" t="n">
+        <v>418</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2333,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3489382893.437824</v>
+        <v>4574456987.267905</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1394887562577345</v>
+        <v>0.1519869871570917</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04722916030557186</v>
+        <v>0.05170138949567214</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>223</v>
+      </c>
+      <c r="J54" t="n">
+        <v>417</v>
+      </c>
+      <c r="K54" t="n">
+        <v>42.38678299848667</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2376,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3633832466.836732</v>
+        <v>4325093889.21629</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1653842201337004</v>
+        <v>0.1847282130495702</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03067337351125434</v>
+        <v>0.032312428202647</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>206</v>
+      </c>
+      <c r="J55" t="n">
+        <v>418</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1675068193.827512</v>
+        <v>1732941913.902723</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1612750099703449</v>
+        <v>0.1247253411111706</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04340009459583991</v>
+        <v>0.03801451204885614</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4118254874.272181</v>
+        <v>3402588254.238536</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1598942434403509</v>
+        <v>0.1356567213645203</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01744103434764986</v>
+        <v>0.01678269615208695</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>181</v>
+      </c>
+      <c r="J57" t="n">
+        <v>417</v>
+      </c>
+      <c r="K57" t="n">
+        <v>36.63716702785503</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1745878152.394423</v>
+        <v>1522348800.386508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1788438898378324</v>
+        <v>0.1431530069544201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03445208088082088</v>
+        <v>0.02684867355239973</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4482813717.983307</v>
+        <v>5097624819.894175</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1293419944049304</v>
+        <v>0.1031195073697788</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03103443010146152</v>
+        <v>0.04554939325381593</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>204</v>
+      </c>
+      <c r="J59" t="n">
+        <v>418</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,16 +2553,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2362082226.645376</v>
+        <v>3547916290.417037</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1298725166576278</v>
+        <v>0.1324379867565392</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0264012478562247</v>
+        <v>0.03080223316441841</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>80</v>
+      </c>
+      <c r="J60" t="n">
+        <v>418</v>
+      </c>
+      <c r="K60" t="n">
+        <v>57.56108543709892</v>
       </c>
     </row>
     <row r="61">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3033575963.373775</v>
+        <v>3320773126.548284</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1412500719165133</v>
+        <v>0.1282301737398286</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03281965980424367</v>
+        <v>0.02805139918278144</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2020909306.717996</v>
+        <v>1857840495.796387</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1385605206277991</v>
+        <v>0.1522461363855453</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04294464802618755</v>
+        <v>0.04040487240694642</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3891827329.620907</v>
+        <v>3636037469.792234</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0857398609344765</v>
+        <v>0.1073099221932706</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03361532514017417</v>
+        <v>0.0303976420603862</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>208</v>
+      </c>
+      <c r="J63" t="n">
+        <v>418</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4588284629.990594</v>
+        <v>5385539765.336714</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1264606820012853</v>
+        <v>0.1597640732471546</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02761421748208371</v>
+        <v>0.02828413092697279</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>209</v>
+      </c>
+      <c r="J64" t="n">
+        <v>418</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4882261938.404198</v>
+        <v>4469078476.681407</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1092444054736659</v>
+        <v>0.121549028320136</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02970878681959034</v>
+        <v>0.02375719005897668</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>306</v>
+      </c>
+      <c r="J65" t="n">
+        <v>418</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4062791715.510636</v>
+        <v>5066199776.65782</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1096596449526333</v>
+        <v>0.1035825111736582</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04115607703462236</v>
+        <v>0.04509255096797934</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>206</v>
+      </c>
+      <c r="J66" t="n">
+        <v>417</v>
+      </c>
+      <c r="K66" t="n">
+        <v>41.77782580457013</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2794341384.058216</v>
+        <v>2784202774.035705</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07909796089262446</v>
+        <v>0.08322829123047908</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03696137713970548</v>
+        <v>0.04626473493633627</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4972230431.791519</v>
+        <v>4236433594.197289</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1094098094222482</v>
+        <v>0.160244030214506</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04958230403861118</v>
+        <v>0.04135324514173161</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>228</v>
+      </c>
+      <c r="J68" t="n">
+        <v>418</v>
+      </c>
+      <c r="K68" t="n">
+        <v>42.68441804884884</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1507926939.340132</v>
+        <v>2085169743.529126</v>
       </c>
       <c r="F69" t="n">
-        <v>0.141469812535632</v>
+        <v>0.1237797741699656</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04668939413096951</v>
+        <v>0.05894936846505186</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3618759494.448149</v>
+        <v>2830513107.570069</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08964697179953773</v>
+        <v>0.09745806726850786</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03784292153127313</v>
+        <v>0.04527148331063107</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>56</v>
+      </c>
+      <c r="J70" t="n">
+        <v>413</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2944,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4847336666.052353</v>
+        <v>5175660147.476134</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1170825321715835</v>
+        <v>0.1848711638348239</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02515324248633394</v>
+        <v>0.03146144175450607</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>293</v>
+      </c>
+      <c r="J71" t="n">
+        <v>417</v>
+      </c>
+      <c r="K71" t="n">
+        <v>40.74051900635387</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1523042905.672081</v>
+        <v>1465287196.29722</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0697954772576843</v>
+        <v>0.1029459977121833</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03374395722018106</v>
+        <v>0.05033121760983476</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3148789641.84629</v>
+        <v>2916402011.878278</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08057023425015448</v>
+        <v>0.103121848814015</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0431983695361158</v>
+        <v>0.04812674923286214</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3012142842.204437</v>
+        <v>3498790251.43979</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1230586575464516</v>
+        <v>0.1424349106023566</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03262636304058487</v>
+        <v>0.0283224593889741</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>118</v>
+      </c>
+      <c r="J74" t="n">
+        <v>418</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2382297694.548189</v>
+        <v>2380566574.43111</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1235777988692128</v>
+        <v>0.1440698181579199</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02951226867061609</v>
+        <v>0.03524122233720105</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3593258315.993038</v>
+        <v>3585788976.218316</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08857385596211155</v>
+        <v>0.08305691640028673</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02696659094850255</v>
+        <v>0.02806943296523289</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>199</v>
+      </c>
+      <c r="J76" t="n">
+        <v>417</v>
+      </c>
+      <c r="K76" t="n">
+        <v>39.84276008932826</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1836431550.627151</v>
+        <v>1670177826.845935</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1566069781890418</v>
+        <v>0.1294076146589566</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02123216711835361</v>
+        <v>0.02844040531418516</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3726976449.161561</v>
+        <v>4614355320.921103</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1096544823923672</v>
+        <v>0.1372126224172426</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04055216396740309</v>
+        <v>0.03950596943869357</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>209</v>
+      </c>
+      <c r="J78" t="n">
+        <v>418</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1266389056.030372</v>
+        <v>1548116275.757818</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1595406636974716</v>
+        <v>0.1631432174534781</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03991091408449468</v>
+        <v>0.03208943820996782</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5227668631.800112</v>
+        <v>3495354650.013219</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1015452145850425</v>
+        <v>0.1118095102999451</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03067852272848251</v>
+        <v>0.02799837120102269</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>204</v>
+      </c>
+      <c r="J80" t="n">
+        <v>417</v>
+      </c>
+      <c r="K80" t="n">
+        <v>33.18781925594298</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3652037563.276764</v>
+        <v>4377501335.320357</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09281577821260302</v>
+        <v>0.1148614207060415</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02067625217179917</v>
+        <v>0.02278136503075557</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>194</v>
+      </c>
+      <c r="J81" t="n">
+        <v>417</v>
+      </c>
+      <c r="K81" t="n">
+        <v>40.98201597911764</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3951084756.416614</v>
+        <v>5523672937.302253</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2097612056735763</v>
+        <v>0.187485837751164</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02096084031456844</v>
+        <v>0.02620438826873864</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>284</v>
+      </c>
+      <c r="J82" t="n">
+        <v>417</v>
+      </c>
+      <c r="K82" t="n">
+        <v>41.93442371843369</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2066509796.609225</v>
+        <v>2001525518.198362</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1147959252080321</v>
+        <v>0.1298971117527034</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03358650353081249</v>
+        <v>0.04052896146182423</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1697153283.812296</v>
+        <v>2286822911.455262</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09166772659475597</v>
+        <v>0.07687942845929016</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04543276919719185</v>
+        <v>0.03605203018124723</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2831520188.704328</v>
+        <v>2649478467.840663</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1707630664769705</v>
+        <v>0.1293079839301222</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04088990335640696</v>
+        <v>0.04200679840754418</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>52</v>
+      </c>
+      <c r="J85" t="n">
+        <v>401</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2449112158.664138</v>
+        <v>2198113762.637214</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1514532117947965</v>
+        <v>0.1046004081219162</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0226754217862276</v>
+        <v>0.01661700753803457</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1425175069.713386</v>
+        <v>1262610727.589032</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1723432218692862</v>
+        <v>0.163585867695221</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03004000398968949</v>
+        <v>0.02972412127381462</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3144006567.484646</v>
+        <v>2914157334.231588</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1520589837924353</v>
+        <v>0.1218404275517866</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03737015614128347</v>
+        <v>0.03159958543649088</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>53</v>
+      </c>
+      <c r="J88" t="n">
+        <v>409</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2445129234.416603</v>
+        <v>2724856728.316397</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1493021017255033</v>
+        <v>0.12127212430219</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04132736463556911</v>
+        <v>0.03229359485364634</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1863569581.6246</v>
+        <v>1770824052.237936</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1030735626984115</v>
+        <v>0.09820147336657102</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05346222519919157</v>
+        <v>0.04133408918490804</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1668759485.696174</v>
+        <v>1937539817.893672</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1500244295782771</v>
+        <v>0.1476692070805799</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04405111413498649</v>
+        <v>0.06018181655889307</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2461393196.104609</v>
+        <v>2090949473.776838</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07344659501117369</v>
+        <v>0.1053913950446124</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04321606954879888</v>
+        <v>0.03394177554246663</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4118806827.62119</v>
+        <v>3481984276.841236</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1235608853898828</v>
+        <v>0.09780714731257237</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03948451607834645</v>
+        <v>0.03743414420729176</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>200</v>
+      </c>
+      <c r="J93" t="n">
+        <v>417</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.01664748586577</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2096356088.378503</v>
+        <v>2514967086.464691</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1238073624787516</v>
+        <v>0.134717408242584</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02846565103838854</v>
+        <v>0.03591799887607176</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2070582074.163136</v>
+        <v>2823930589.593045</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1375873325035138</v>
+        <v>0.08576533985640707</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05039642295699066</v>
+        <v>0.04478095340583814</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1459240803.345066</v>
+        <v>1895756344.45952</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1171696214246171</v>
+        <v>0.1258482928340617</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03180179334235259</v>
+        <v>0.03949476300574338</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5328227800.461028</v>
+        <v>4129972372.077594</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1211201033195969</v>
+        <v>0.1709102032942642</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02644825961309043</v>
+        <v>0.02800493865622082</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>218</v>
+      </c>
+      <c r="J97" t="n">
+        <v>418</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3759412033.202562</v>
+        <v>2894714171.940782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08959204489372022</v>
+        <v>0.07842602506552308</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02092153993722012</v>
+        <v>0.02622343289984204</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>108</v>
+      </c>
+      <c r="J98" t="n">
+        <v>416</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3023900487.873574</v>
+        <v>2875059548.944687</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1113451800685132</v>
+        <v>0.1156337969915487</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03368553695590648</v>
+        <v>0.03250409376435232</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3706189414.351453</v>
+        <v>3862009553.276254</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1318920096169589</v>
+        <v>0.1761785536165921</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01725234247730485</v>
+        <v>0.02345884975546025</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>194</v>
+      </c>
+      <c r="J100" t="n">
+        <v>418</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2805369631.879134</v>
+        <v>2622093349.713105</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1626534458105792</v>
+        <v>0.2037065682993918</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04272896034360334</v>
+        <v>0.05337006518499716</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
